--- a/画面設計/【画面設計】02_料理検索画面.xlsx
+++ b/画面設計/【画面設計】02_料理検索画面.xlsx
@@ -6,19 +6,20 @@
     <sheet state="visible" name="更新履歴" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="画面部品情報" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="ビジネスルール" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="シート1" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="SzGwqRUfuErui5IzfdtIGPoIA/zkwqI+OmOBeoVvrtY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="DfJU+qhcEtj2ypD3XSAFDQtzXLv0MtqGqGcozOeYkcU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -74,10 +75,7 @@
     <t>（簡単検索時）</t>
   </si>
   <si>
-    <t>（初期表示時）各指定はアコーディオン</t>
-  </si>
-  <si>
-    <t>※各ジャンルともにクリック時にアコーディオンでカテゴリ指定のように下に出るイメージ</t>
+    <t>（初期表示時）※各ジャンルともにクリック時にアコーディオンでカテゴリ指定のように下に出るイメージ</t>
   </si>
   <si>
     <t>（詳細検索時）</t>
@@ -139,6 +137,120 @@
   <si>
     <t>1. 処理一覧</t>
   </si>
+  <si>
+    <t>・・・・・・</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　アワビ ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　イクラ ⬜︎</t>
+  </si>
+  <si>
+    <t>難易度指定（半角数字1〜5を入力）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　★ </t>
+  </si>
+  <si>
+    <t>カテゴリ指定</t>
+  </si>
+  <si>
+    <t>カロリー指定（半角数字で入力）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　和食　⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　洋食　⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　中華　⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　世界の料理　⬜︎</t>
+  </si>
+  <si>
+    <t>〜</t>
+  </si>
+  <si>
+    <t>ジャンル指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　魚料理 ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　肉料理  ⬜︎</t>
+  </si>
+  <si>
+    <t>ヘルシー料理のみを表示　　⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　野菜料理  ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　麺類  ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　デザート ⬜︎</t>
+  </si>
+  <si>
+    <t>検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　粉もの ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　米料理 ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　汁物  ⬜︎</t>
+  </si>
+  <si>
+    <t>ランダム料理検索</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　卵料理 ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　その他 ⬜︎</t>
+  </si>
+  <si>
+    <t>調理方法指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　煮る ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　炒める ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　揚げる ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　焼く ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　蒸す ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　ゆでる ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　あえる ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　オーブン  ⬜︎</t>
+  </si>
+  <si>
+    <t>アレルギー指定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　卵 ⬜︎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　乳 ⬜︎</t>
+  </si>
 </sst>
 </file>
 
@@ -147,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -202,8 +314,43 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="17.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +385,54 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor rgb="FF9900FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -354,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -556,6 +751,69 @@
     <xf borderId="9" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="13" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="14" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -573,11 +831,127 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4010025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>4029075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>-200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2705100" cy="5705475"/>
+    <xdr:ext cx="7810500" cy="8115300"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="5210258" cy="5410200"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="5210258" cy="5410200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="5210258" cy="5410200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>-200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5753100" cy="5629275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5753100" cy="5295900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>-190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3505200" cy="7400925"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
@@ -593,7 +967,7 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
+          <xdr:cNvPr id="4" name="Shape 4"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
@@ -623,65 +997,260 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>-200025</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5753100" cy="5629275"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:ext cx="5953125" cy="5429250"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="5935836" cy="5410200"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="5935836" cy="5410200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="5935836" cy="5410200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5753100" cy="5295900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
+    <xdr:ext cx="3771900" cy="638175"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="7315200" cy="916341"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="7315200" cy="916341"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="Shape 6"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId3">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="7315200" cy="916341"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3771900" cy="542925"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="4476750" cy="666750"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="4476750" cy="666750"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId4">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="4476750" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1533525" cy="485775"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="3048000" cy="685800"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="3048000" cy="685800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="Shape 8"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId5">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="3048000" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2000250" cy="485775"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="152400" y="152400"/>
+          <a:ext cx="3048000" cy="685800"/>
+          <a:chOff x="152400" y="152400"/>
+          <a:chExt cx="3048000" cy="685800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Shape 9"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId5">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="152400" y="152400"/>
+            <a:ext cx="3048000" cy="685800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2126,7 +2695,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -2630,9 +3199,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="27" t="s">
-        <v>19</v>
-      </c>
+      <c r="H17" s="27"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -3159,7 +3726,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3917,7 +4484,7 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -4054,7 +4621,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -4084,13 +4651,13 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="D69" s="31" t="s">
         <v>24</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>25</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -4230,7 +4797,7 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -4260,10 +4827,10 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="6"/>
@@ -4460,14 +5027,14 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -4492,14 +5059,14 @@
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -4524,30 +5091,30 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C84" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="D84" s="31" t="s">
         <v>33</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>34</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="H84" s="31" t="s">
-        <v>36</v>
+      <c r="I84" s="31" t="s">
+        <v>23</v>
       </c>
-      <c r="I84" s="31" t="s">
+      <c r="J84" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J84" s="31" t="s">
-        <v>25</v>
-      </c>
       <c r="K84" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -4624,14 +5191,14 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="24"/>
       <c r="B87" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C87" s="49"/>
       <c r="D87" s="49"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
       <c r="G87" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87" s="49"/>
       <c r="I87" s="49"/>
@@ -4656,30 +5223,30 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="50"/>
       <c r="B88" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="D88" s="51" t="s">
         <v>33</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>34</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="50"/>
       <c r="G88" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H88" s="51" t="s">
-        <v>36</v>
+      <c r="I88" s="51" t="s">
+        <v>23</v>
       </c>
-      <c r="I88" s="51" t="s">
+      <c r="J88" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J88" s="51" t="s">
-        <v>25</v>
-      </c>
       <c r="K88" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L88" s="24"/>
       <c r="M88" s="24"/>
@@ -4840,30 +5407,30 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="50"/>
       <c r="B94" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="D94" s="51" t="s">
         <v>33</v>
-      </c>
-      <c r="D94" s="51" t="s">
-        <v>34</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="50"/>
       <c r="G94" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H94" s="51" t="s">
-        <v>36</v>
+      <c r="I94" s="51" t="s">
+        <v>23</v>
       </c>
-      <c r="I94" s="51" t="s">
+      <c r="J94" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J94" s="51" t="s">
-        <v>25</v>
-      </c>
       <c r="K94" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
@@ -4940,14 +5507,14 @@
     <row r="97" ht="21.0" customHeight="1">
       <c r="A97" s="24"/>
       <c r="B97" s="49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C97" s="49"/>
       <c r="D97" s="49"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H97" s="49"/>
       <c r="I97" s="49"/>
@@ -4972,30 +5539,30 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="50"/>
       <c r="B98" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="D98" s="51" t="s">
         <v>33</v>
-      </c>
-      <c r="D98" s="51" t="s">
-        <v>34</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="50"/>
       <c r="G98" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H98" s="51" t="s">
-        <v>36</v>
+      <c r="I98" s="51" t="s">
+        <v>23</v>
       </c>
-      <c r="I98" s="51" t="s">
+      <c r="J98" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J98" s="51" t="s">
-        <v>25</v>
-      </c>
       <c r="K98" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L98" s="24"/>
       <c r="M98" s="24"/>
@@ -30927,7 +31494,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="64"/>
       <c r="B4" s="64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -30955,10 +31522,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="64"/>
@@ -52548,4 +53115,395 @@
   <pageSetup paperSize="9" scale="48" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="16" max="16" width="7.71"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="69"/>
+      <c r="Q2" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="69"/>
+    </row>
+    <row r="3">
+      <c r="L3" s="71"/>
+      <c r="O3" s="72"/>
+      <c r="Q3" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="72"/>
+    </row>
+    <row r="4">
+      <c r="L4" s="71"/>
+      <c r="O4" s="72"/>
+      <c r="Q4" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="72"/>
+    </row>
+    <row r="5">
+      <c r="L5" s="71"/>
+      <c r="O5" s="72"/>
+      <c r="Q5" s="71"/>
+      <c r="T5" s="72"/>
+    </row>
+    <row r="6">
+      <c r="L6" s="71"/>
+      <c r="O6" s="72"/>
+      <c r="Q6" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="L7" s="71"/>
+      <c r="O7" s="72"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8">
+      <c r="L8" s="71"/>
+      <c r="O8" s="72"/>
+      <c r="Q8" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="30"/>
+    </row>
+    <row r="9">
+      <c r="L9" s="71"/>
+      <c r="O9" s="72"/>
+      <c r="Q9" s="29"/>
+      <c r="T9" s="30"/>
+    </row>
+    <row r="10">
+      <c r="L10" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="Q10" s="29"/>
+      <c r="T10" s="30"/>
+    </row>
+    <row r="11">
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="Q11" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="L12" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="72"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13">
+      <c r="L13" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="72"/>
+      <c r="Q13" s="73"/>
+      <c r="T13" s="72"/>
+    </row>
+    <row r="14">
+      <c r="L14" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="72"/>
+      <c r="Q14" s="73"/>
+      <c r="T14" s="72"/>
+    </row>
+    <row r="15">
+      <c r="L15" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="72"/>
+      <c r="Q15" s="73"/>
+      <c r="T15" s="72"/>
+    </row>
+    <row r="16">
+      <c r="L16" s="71"/>
+      <c r="O16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="72"/>
+    </row>
+    <row r="17">
+      <c r="L17" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="3"/>
+      <c r="Q17" s="73"/>
+      <c r="T17" s="72"/>
+    </row>
+    <row r="18">
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
+      <c r="Q18" s="73"/>
+      <c r="T18" s="72"/>
+    </row>
+    <row r="19">
+      <c r="L19" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="72"/>
+      <c r="Q19" s="73"/>
+      <c r="T19" s="72"/>
+    </row>
+    <row r="20">
+      <c r="L20" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="O20" s="72"/>
+      <c r="Q20" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="L21" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="72"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="L22" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="72"/>
+      <c r="Q22" s="73"/>
+      <c r="T22" s="72"/>
+    </row>
+    <row r="23">
+      <c r="L23" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="72"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23" s="3"/>
+      <c r="T23" s="72"/>
+    </row>
+    <row r="24">
+      <c r="L24" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="72"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="72"/>
+    </row>
+    <row r="25">
+      <c r="L25" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="72"/>
+      <c r="Q25" s="73"/>
+      <c r="T25" s="72"/>
+    </row>
+    <row r="26">
+      <c r="L26" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="O26" s="72"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="72"/>
+    </row>
+    <row r="27">
+      <c r="L27" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" s="72"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="72"/>
+    </row>
+    <row r="28">
+      <c r="L28" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="72"/>
+      <c r="Q28" s="71"/>
+      <c r="T28" s="72"/>
+    </row>
+    <row r="29">
+      <c r="L29" s="71"/>
+      <c r="O29" s="72"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="85"/>
+    </row>
+    <row r="30">
+      <c r="L30" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="L31" s="7"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32">
+      <c r="L32" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" s="72"/>
+    </row>
+    <row r="33">
+      <c r="L33" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="O33" s="72"/>
+    </row>
+    <row r="34">
+      <c r="L34" s="73" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" s="72"/>
+    </row>
+    <row r="35">
+      <c r="L35" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="O35" s="72"/>
+    </row>
+    <row r="36">
+      <c r="L36" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" s="72"/>
+    </row>
+    <row r="37">
+      <c r="L37" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="O37" s="72"/>
+    </row>
+    <row r="38">
+      <c r="L38" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="O38" s="72"/>
+    </row>
+    <row r="39">
+      <c r="L39" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="O39" s="72"/>
+    </row>
+    <row r="40">
+      <c r="L40" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="72"/>
+    </row>
+    <row r="41">
+      <c r="L41" s="71"/>
+      <c r="O41" s="72"/>
+    </row>
+    <row r="42">
+      <c r="L42" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44">
+      <c r="L44" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="O44" s="72"/>
+    </row>
+    <row r="45">
+      <c r="L45" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="O45" s="72"/>
+    </row>
+    <row r="46">
+      <c r="L46" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="L10:O11"/>
+    <mergeCell ref="Q11:T12"/>
+    <mergeCell ref="Q8:T10"/>
+    <mergeCell ref="L17:O18"/>
+    <mergeCell ref="L30:O31"/>
+    <mergeCell ref="L42:O43"/>
+    <mergeCell ref="Q6:T7"/>
+    <mergeCell ref="Q20:T21"/>
+    <mergeCell ref="R23:S24"/>
+    <mergeCell ref="R26:S27"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/画面設計/【画面設計】02_料理検索画面.xlsx
+++ b/画面設計/【画面設計】02_料理検索画面.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="DfJU+qhcEtj2ypD3XSAFDQtzXLv0MtqGqGcozOeYkcU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="hVDk3Xyn4N3wKDKzRgb0T97EYrW07H+CKK8kGP/+d5M="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -147,19 +147,25 @@
     <t xml:space="preserve">　イクラ ⬜︎</t>
   </si>
   <si>
-    <t>難易度指定（半角数字1〜5を入力）</t>
+    <t>難易度指定</t>
   </si>
   <si>
     <t xml:space="preserve">　★ </t>
   </si>
   <si>
+    <t>▼</t>
+  </si>
+  <si>
+    <t>（プルダウン）1〰️5</t>
+  </si>
+  <si>
     <t>カテゴリ指定</t>
   </si>
   <si>
-    <t>カロリー指定（半角数字で入力）</t>
+    <t xml:space="preserve">　和食　⬜︎</t>
   </si>
   <si>
-    <t xml:space="preserve">　和食　⬜︎</t>
+    <t>カロリー指定</t>
   </si>
   <si>
     <t xml:space="preserve">　洋食　⬜︎</t>
@@ -168,10 +174,16 @@
     <t xml:space="preserve">　中華　⬜︎</t>
   </si>
   <si>
+    <t>（プルダウン）0-9999</t>
+  </si>
+  <si>
     <t xml:space="preserve">　世界の料理　⬜︎</t>
   </si>
   <si>
-    <t>〜</t>
+    <t xml:space="preserve">　　〜</t>
+  </si>
+  <si>
+    <t>kcal</t>
   </si>
   <si>
     <t>ジャンル指定</t>
@@ -180,13 +192,10 @@
     <t xml:space="preserve">　魚料理 ⬜︎</t>
   </si>
   <si>
-    <t xml:space="preserve">　肉料理  ⬜︎</t>
+    <t xml:space="preserve">　野菜料理  ⬜︎</t>
   </si>
   <si>
     <t>ヘルシー料理のみを表示　　⬜︎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">　野菜料理  ⬜︎</t>
   </si>
   <si>
     <t xml:space="preserve">　麺類  ⬜︎</t>
@@ -320,7 +329,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -332,7 +341,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -413,8 +422,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor rgb="FF4A86E8"/>
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -549,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -772,25 +781,46 @@
     <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="10" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="11" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="12" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -808,10 +838,10 @@
     <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="14" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="14" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,57 +860,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>4029075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>-200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7810500" cy="8115300"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="5210258" cy="5410200"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="5210258" cy="5410200"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Shape 3"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId1">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="5210258" cy="5410200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -889,11 +868,11 @@
     <xdr:ext cx="5753100" cy="5629275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -917,7 +896,35 @@
     <xdr:ext cx="5753100" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12677775" cy="11544300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -967,7 +974,7 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="Shape 4"/>
+          <xdr:cNvPr id="3" name="Shape 3"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
@@ -1018,7 +1025,7 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Shape 5"/>
+          <xdr:cNvPr id="4" name="Shape 4"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
@@ -1033,57 +1040,6 @@
           <a:xfrm>
             <a:off x="152400" y="152400"/>
             <a:ext cx="5935836" cy="5410200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3771900" cy="638175"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="7315200" cy="916341"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="7315200" cy="916341"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Shape 6"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId3">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="7315200" cy="916341"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1120,11 +1076,11 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="Shape 7"/>
+          <xdr:cNvPr id="5" name="Shape 5"/>
           <xdr:cNvPicPr preferRelativeResize="0"/>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip r:embed="rId4">
+          <a:blip r:embed="rId3">
             <a:alphaModFix/>
           </a:blip>
           <a:stretch>
@@ -1150,104 +1106,30 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1533525" cy="485775"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="3048000" cy="685800"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="3048000" cy="685800"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="Shape 8"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId5">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="3048000" cy="685800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2000250" cy="485775"/>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="152400" y="152400"/>
-          <a:ext cx="3048000" cy="685800"/>
-          <a:chOff x="152400" y="152400"/>
-          <a:chExt cx="3048000" cy="685800"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="Shape 9"/>
-          <xdr:cNvPicPr preferRelativeResize="0"/>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip r:embed="rId5">
-            <a:alphaModFix/>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="152400" y="152400"/>
-            <a:ext cx="3048000" cy="685800"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+    <xdr:ext cx="3762375" cy="457200"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image4.jpg" title="画像"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
@@ -53170,339 +53052,318 @@
       <c r="Q6" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="3"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7">
       <c r="L7" s="71"/>
       <c r="O7" s="72"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="9"/>
-    </row>
-    <row r="8">
+      <c r="Q7" s="75"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="77"/>
+    </row>
+    <row r="8" ht="20.25" customHeight="1">
       <c r="L8" s="71"/>
       <c r="O8" s="72"/>
-      <c r="Q8" s="75" t="s">
+      <c r="Q8" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="T8" s="30"/>
-    </row>
-    <row r="9">
-      <c r="L9" s="71"/>
-      <c r="O9" s="72"/>
-      <c r="Q9" s="29"/>
-      <c r="T9" s="30"/>
-    </row>
-    <row r="10">
-      <c r="L10" s="76" t="s">
+      <c r="R8" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="3"/>
-      <c r="Q10" s="29"/>
-      <c r="T10" s="30"/>
-    </row>
-    <row r="11">
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
-      <c r="Q11" s="77" t="s">
+      <c r="S8" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="3"/>
+      <c r="T8" s="77"/>
+    </row>
+    <row r="9">
+      <c r="L9" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="77"/>
+    </row>
+    <row r="10">
+      <c r="L10" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="72"/>
+      <c r="Q10" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="L11" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="72"/>
+      <c r="Q11" s="73"/>
+      <c r="T11" s="72"/>
     </row>
     <row r="12">
       <c r="L12" s="73" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O12" s="72"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="9"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="77"/>
     </row>
     <row r="13">
       <c r="L13" s="73" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="O13" s="72"/>
       <c r="Q13" s="73"/>
+      <c r="R13" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" s="85" t="s">
+        <v>54</v>
+      </c>
       <c r="T13" s="72"/>
     </row>
     <row r="14">
-      <c r="L14" s="73" t="s">
-        <v>48</v>
-      </c>
+      <c r="L14" s="71"/>
       <c r="O14" s="72"/>
       <c r="Q14" s="73"/>
-      <c r="T14" s="72"/>
+      <c r="R14" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="T14" s="77"/>
     </row>
     <row r="15">
-      <c r="L15" s="73" t="s">
-        <v>49</v>
+      <c r="L15" s="86" t="s">
+        <v>55</v>
       </c>
-      <c r="O15" s="72"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
       <c r="Q15" s="73"/>
+      <c r="S15" s="85" t="s">
+        <v>54</v>
+      </c>
       <c r="T15" s="72"/>
     </row>
     <row r="16">
-      <c r="L16" s="71"/>
+      <c r="L16" s="73" t="s">
+        <v>56</v>
+      </c>
       <c r="O16" s="72"/>
       <c r="Q16" s="73"/>
-      <c r="R16" s="78" t="s">
-        <v>50</v>
+      <c r="T16" s="77"/>
+    </row>
+    <row r="17">
+      <c r="L17" s="73" t="s">
+        <v>57</v>
       </c>
-      <c r="T16" s="72"/>
-    </row>
-    <row r="17">
-      <c r="L17" s="79" t="s">
-        <v>51</v>
+      <c r="O17" s="72"/>
+      <c r="Q17" s="87" t="s">
+        <v>58</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-      <c r="Q17" s="73"/>
-      <c r="T17" s="72"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="20"/>
     </row>
     <row r="18">
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
+      <c r="L18" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="72"/>
       <c r="Q18" s="73"/>
       <c r="T18" s="72"/>
     </row>
     <row r="19">
       <c r="L19" s="73" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O19" s="72"/>
       <c r="Q19" s="73"/>
+      <c r="R19" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="3"/>
       <c r="T19" s="72"/>
     </row>
     <row r="20">
       <c r="L20" s="73" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O20" s="72"/>
-      <c r="Q20" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="3"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="72"/>
     </row>
     <row r="21">
       <c r="L21" s="73" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O21" s="72"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="9"/>
+      <c r="Q21" s="73"/>
+      <c r="T21" s="72"/>
     </row>
     <row r="22">
       <c r="L22" s="73" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O22" s="72"/>
       <c r="Q22" s="73"/>
+      <c r="R22" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="S22" s="3"/>
       <c r="T22" s="72"/>
     </row>
     <row r="23">
       <c r="L23" s="73" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O23" s="72"/>
       <c r="Q23" s="73"/>
-      <c r="R23" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="S23" s="3"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="9"/>
       <c r="T23" s="72"/>
     </row>
     <row r="24">
       <c r="L24" s="73" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="O24" s="72"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="Q24" s="71"/>
       <c r="T24" s="72"/>
     </row>
     <row r="25">
-      <c r="L25" s="73" t="s">
-        <v>60</v>
+      <c r="L25" s="71"/>
+      <c r="O25" s="72"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="92"/>
+    </row>
+    <row r="26">
+      <c r="L26" s="93" t="s">
+        <v>68</v>
       </c>
-      <c r="O25" s="72"/>
-      <c r="Q25" s="73"/>
-      <c r="T25" s="72"/>
-    </row>
-    <row r="26">
-      <c r="L26" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="O26" s="72"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="72"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
     </row>
     <row r="27">
       <c r="L27" s="73" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="O27" s="72"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="72"/>
     </row>
     <row r="28">
       <c r="L28" s="73" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="O28" s="72"/>
-      <c r="Q28" s="71"/>
-      <c r="T28" s="72"/>
     </row>
     <row r="29">
-      <c r="L29" s="71"/>
+      <c r="L29" s="73" t="s">
+        <v>71</v>
+      </c>
       <c r="O29" s="72"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="85"/>
     </row>
     <row r="30">
-      <c r="L30" s="86" t="s">
-        <v>65</v>
+      <c r="L30" s="73" t="s">
+        <v>72</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="3"/>
+      <c r="O30" s="72"/>
     </row>
     <row r="31">
-      <c r="L31" s="7"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
+      <c r="L31" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" s="72"/>
     </row>
     <row r="32">
       <c r="L32" s="73" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="O32" s="72"/>
     </row>
     <row r="33">
       <c r="L33" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="O33" s="72"/>
+    </row>
+    <row r="34">
+      <c r="L34" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" s="72"/>
+    </row>
+    <row r="35">
+      <c r="L35" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="72"/>
-    </row>
-    <row r="34">
-      <c r="L34" s="73" t="s">
-        <v>68</v>
+      <c r="O35" s="72"/>
+    </row>
+    <row r="36">
+      <c r="L36" s="71"/>
+      <c r="O36" s="72"/>
+    </row>
+    <row r="37">
+      <c r="L37" s="94" t="s">
+        <v>77</v>
       </c>
-      <c r="O34" s="72"/>
-    </row>
-    <row r="35">
-      <c r="L35" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="O35" s="72"/>
-    </row>
-    <row r="36">
-      <c r="L36" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="O36" s="72"/>
-    </row>
-    <row r="37">
-      <c r="L37" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="O37" s="72"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
     </row>
     <row r="38">
       <c r="L38" s="73" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O38" s="72"/>
     </row>
     <row r="39">
       <c r="L39" s="73" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O39" s="72"/>
     </row>
     <row r="40">
-      <c r="L40" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="O40" s="72"/>
-    </row>
-    <row r="41">
-      <c r="L41" s="71"/>
-      <c r="O41" s="72"/>
-    </row>
-    <row r="42">
-      <c r="L42" s="87" t="s">
-        <v>74</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43">
-      <c r="L43" s="7"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="L44" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="O44" s="72"/>
-    </row>
-    <row r="45">
-      <c r="L45" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="O45" s="72"/>
-    </row>
-    <row r="46">
-      <c r="L46" s="83" t="s">
+      <c r="L40" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="85"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="L10:O11"/>
-    <mergeCell ref="Q11:T12"/>
-    <mergeCell ref="Q8:T10"/>
-    <mergeCell ref="L17:O18"/>
-    <mergeCell ref="L30:O31"/>
-    <mergeCell ref="L42:O43"/>
-    <mergeCell ref="Q6:T7"/>
-    <mergeCell ref="Q20:T21"/>
-    <mergeCell ref="R23:S24"/>
-    <mergeCell ref="R26:S27"/>
+  <mergeCells count="9">
+    <mergeCell ref="R22:S23"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="R19:S20"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/画面設計/【画面設計】02_料理検索画面.xlsx
+++ b/画面設計/【画面設計】02_料理検索画面.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>2.【機能概要】</t>
+  </si>
+  <si>
+    <t>既に登録された料理を各条件に沿って、検索できる画面。
+各指定はチェックボックスで複数指定できるようになっている。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -643,8 +647,8 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -868,7 +872,7 @@
     <xdr:ext cx="5753100" cy="5629275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -896,7 +900,7 @@
     <xdr:ext cx="5753100" cy="5295900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="画像"/>
+        <xdr:cNvPr id="0" name="image2.png" title="画像"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4395,7 +4399,9 @@
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="28"/>
+      <c r="B64" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4503,7 +4509,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -4533,13 +4539,13 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -4679,7 +4685,7 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -4709,10 +4715,10 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="6"/>
@@ -4909,14 +4915,14 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -4941,14 +4947,14 @@
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
@@ -4973,30 +4979,30 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I84" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J84" s="31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K84" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -5073,14 +5079,14 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="24"/>
       <c r="B87" s="49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C87" s="49"/>
       <c r="D87" s="49"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
       <c r="G87" s="49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H87" s="49"/>
       <c r="I87" s="49"/>
@@ -5105,30 +5111,30 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="50"/>
       <c r="B88" s="51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C88" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D88" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="50"/>
       <c r="G88" s="51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88" s="51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I88" s="51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J88" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K88" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L88" s="24"/>
       <c r="M88" s="24"/>
@@ -5289,30 +5295,30 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="50"/>
       <c r="B94" s="51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C94" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="50"/>
       <c r="G94" s="51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H94" s="51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I94" s="51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J94" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K94" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
@@ -5389,14 +5395,14 @@
     <row r="97" ht="21.0" customHeight="1">
       <c r="A97" s="24"/>
       <c r="B97" s="49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C97" s="49"/>
       <c r="D97" s="49"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
       <c r="G97" s="49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H97" s="49"/>
       <c r="I97" s="49"/>
@@ -5421,30 +5427,30 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="50"/>
       <c r="B98" s="51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C98" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="50"/>
       <c r="G98" s="51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H98" s="51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I98" s="51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J98" s="51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K98" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L98" s="24"/>
       <c r="M98" s="24"/>
@@ -31376,7 +31382,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="64"/>
       <c r="B4" s="64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -31404,10 +31410,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="64"/>
@@ -53018,7 +53024,7 @@
       <c r="N2" s="68"/>
       <c r="O2" s="69"/>
       <c r="Q2" s="70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2" s="68"/>
       <c r="S2" s="68"/>
@@ -53028,7 +53034,7 @@
       <c r="L3" s="71"/>
       <c r="O3" s="72"/>
       <c r="Q3" s="73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T3" s="72"/>
     </row>
@@ -53036,7 +53042,7 @@
       <c r="L4" s="71"/>
       <c r="O4" s="72"/>
       <c r="Q4" s="73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" s="72"/>
     </row>
@@ -53050,7 +53056,7 @@
       <c r="L6" s="71"/>
       <c r="O6" s="72"/>
       <c r="Q6" s="74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
@@ -53068,19 +53074,19 @@
       <c r="L8" s="71"/>
       <c r="O8" s="72"/>
       <c r="Q8" s="78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R8" s="79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S8" s="80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T8" s="77"/>
     </row>
     <row r="9">
       <c r="L9" s="81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
@@ -53092,11 +53098,11 @@
     </row>
     <row r="10">
       <c r="L10" s="73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O10" s="72"/>
       <c r="Q10" s="82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
@@ -53104,7 +53110,7 @@
     </row>
     <row r="11">
       <c r="L11" s="73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O11" s="72"/>
       <c r="Q11" s="73"/>
@@ -53112,29 +53118,29 @@
     </row>
     <row r="12">
       <c r="L12" s="73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O12" s="72"/>
       <c r="Q12" s="73"/>
       <c r="R12" s="79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S12" s="83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T12" s="77"/>
     </row>
     <row r="13">
       <c r="L13" s="73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O13" s="72"/>
       <c r="Q13" s="73"/>
       <c r="R13" s="84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S13" s="85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T13" s="72"/>
     </row>
@@ -53143,29 +53149,29 @@
       <c r="O14" s="72"/>
       <c r="Q14" s="73"/>
       <c r="R14" s="79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S14" s="83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T14" s="77"/>
     </row>
     <row r="15">
       <c r="L15" s="86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="20"/>
       <c r="Q15" s="73"/>
       <c r="S15" s="85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T15" s="72"/>
     </row>
     <row r="16">
       <c r="L16" s="73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O16" s="72"/>
       <c r="Q16" s="73"/>
@@ -53173,11 +53179,11 @@
     </row>
     <row r="17">
       <c r="L17" s="73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O17" s="72"/>
       <c r="Q17" s="87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R17" s="19"/>
       <c r="S17" s="19"/>
@@ -53185,7 +53191,7 @@
     </row>
     <row r="18">
       <c r="L18" s="73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="72"/>
       <c r="Q18" s="73"/>
@@ -53193,19 +53199,19 @@
     </row>
     <row r="19">
       <c r="L19" s="73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="72"/>
       <c r="Q19" s="73"/>
       <c r="R19" s="88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="72"/>
     </row>
     <row r="20">
       <c r="L20" s="73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="72"/>
       <c r="Q20" s="73"/>
@@ -53215,7 +53221,7 @@
     </row>
     <row r="21">
       <c r="L21" s="73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="72"/>
       <c r="Q21" s="73"/>
@@ -53223,19 +53229,19 @@
     </row>
     <row r="22">
       <c r="L22" s="73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22" s="72"/>
       <c r="Q22" s="73"/>
       <c r="R22" s="89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="72"/>
     </row>
     <row r="23">
       <c r="L23" s="73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" s="72"/>
       <c r="Q23" s="73"/>
@@ -53245,7 +53251,7 @@
     </row>
     <row r="24">
       <c r="L24" s="73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O24" s="72"/>
       <c r="Q24" s="71"/>
@@ -53261,7 +53267,7 @@
     </row>
     <row r="26">
       <c r="L26" s="93" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
@@ -53269,55 +53275,55 @@
     </row>
     <row r="27">
       <c r="L27" s="73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O27" s="72"/>
     </row>
     <row r="28">
       <c r="L28" s="73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O28" s="72"/>
     </row>
     <row r="29">
       <c r="L29" s="73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O29" s="72"/>
     </row>
     <row r="30">
       <c r="L30" s="73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O30" s="72"/>
     </row>
     <row r="31">
       <c r="L31" s="73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O31" s="72"/>
     </row>
     <row r="32">
       <c r="L32" s="73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O32" s="72"/>
     </row>
     <row r="33">
       <c r="L33" s="73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O33" s="72"/>
     </row>
     <row r="34">
       <c r="L34" s="73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O34" s="72"/>
     </row>
     <row r="35">
       <c r="L35" s="73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O35" s="72"/>
     </row>
@@ -53327,7 +53333,7 @@
     </row>
     <row r="37">
       <c r="L37" s="94" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
@@ -53335,19 +53341,19 @@
     </row>
     <row r="38">
       <c r="L38" s="73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O38" s="72"/>
     </row>
     <row r="39">
       <c r="L39" s="73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O39" s="72"/>
     </row>
     <row r="40">
       <c r="L40" s="90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M40" s="91"/>
       <c r="N40" s="91"/>

--- a/画面設計/【画面設計】02_料理検索画面.xlsx
+++ b/画面設計/【画面設計】02_料理検索画面.xlsx
@@ -84,7 +84,8 @@
     <t>2.【機能概要】</t>
   </si>
   <si>
-    <t>既に登録された料理を各条件に沿って、検索できる画面。
+    <t>アプリ起動時にまず表示される画面、また、サイドメニュー（01_メニュー画面）の「料理検索」からも呼ばれる画面。
+既に登録された料理を各条件に沿って、検索できる画面。
 各指定はチェックボックスで複数指定できるようになっている。</t>
   </si>
   <si>
